--- a/java-example-jxls/src/main/resources/jxls/user-util.xlsx
+++ b/java-example-jxls/src/main/resources/jxls/user-util.xlsx
@@ -191,11 +191,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,7 +514,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -526,12 +526,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
@@ -574,8 +574,8 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
